--- a/casospordepartamento.xlsx
+++ b/casospordepartamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3058" uniqueCount="157">
   <si>
     <t>date</t>
   </si>
@@ -477,6 +477,15 @@
   <si>
     <t>2020-08-06</t>
   </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
 </sst>
 </file>
 
@@ -833,7 +842,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2968"/>
+  <dimension ref="A1:D3056"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28553,7 +28562,7 @@
         <v>50</v>
       </c>
       <c r="D1980">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1981" spans="1:4">
@@ -28581,7 +28590,7 @@
         <v>54</v>
       </c>
       <c r="D1982">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1983" spans="1:4">
@@ -31423,7 +31432,7 @@
         <v>19</v>
       </c>
       <c r="D2185">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2186" spans="1:4">
@@ -31605,7 +31614,7 @@
         <v>68</v>
       </c>
       <c r="D2198">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2199" spans="1:4">
@@ -31647,7 +31656,7 @@
         <v>76</v>
       </c>
       <c r="D2201">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2202" spans="1:4">
@@ -31675,7 +31684,7 @@
         <v>85</v>
       </c>
       <c r="D2203">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2204" spans="1:4">
@@ -33215,7 +33224,7 @@
         <v>5</v>
       </c>
       <c r="D2313">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2314" spans="1:4">
@@ -33271,7 +33280,7 @@
         <v>15</v>
       </c>
       <c r="D2317">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2318" spans="1:4">
@@ -33313,7 +33322,7 @@
         <v>19</v>
       </c>
       <c r="D2320">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2321" spans="1:4">
@@ -33383,7 +33392,7 @@
         <v>41</v>
       </c>
       <c r="D2325">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2326" spans="1:4">
@@ -33523,7 +33532,7 @@
         <v>76</v>
       </c>
       <c r="D2335">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2336" spans="1:4">
@@ -33565,7 +33574,7 @@
         <v>86</v>
       </c>
       <c r="D2338">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2339" spans="1:4">
@@ -33705,7 +33714,7 @@
         <v>19</v>
       </c>
       <c r="D2348">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2349" spans="1:4">
@@ -33929,7 +33938,7 @@
         <v>76</v>
       </c>
       <c r="D2364">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2365" spans="1:4">
@@ -33999,7 +34008,7 @@
         <v>5</v>
       </c>
       <c r="D2369">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="2370" spans="1:4">
@@ -34041,7 +34050,7 @@
         <v>13</v>
       </c>
       <c r="D2372">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2373" spans="1:4">
@@ -34097,7 +34106,7 @@
         <v>19</v>
       </c>
       <c r="D2376">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2377" spans="1:4">
@@ -34195,7 +34204,7 @@
         <v>47</v>
       </c>
       <c r="D2383">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2384" spans="1:4">
@@ -34279,7 +34288,7 @@
         <v>68</v>
       </c>
       <c r="D2389">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2390" spans="1:4">
@@ -34321,7 +34330,7 @@
         <v>76</v>
       </c>
       <c r="D2392">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2393" spans="1:4">
@@ -34783,7 +34792,7 @@
         <v>8</v>
       </c>
       <c r="D2425">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2426" spans="1:4">
@@ -35049,7 +35058,7 @@
         <v>68</v>
       </c>
       <c r="D2444">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2445" spans="1:4">
@@ -35609,7 +35618,7 @@
         <v>15</v>
       </c>
       <c r="D2484">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2485" spans="1:4">
@@ -35749,7 +35758,7 @@
         <v>47</v>
       </c>
       <c r="D2494">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2495" spans="1:4">
@@ -36015,7 +36024,7 @@
         <v>19</v>
       </c>
       <c r="D2513">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2514" spans="1:4">
@@ -36239,7 +36248,7 @@
         <v>76</v>
       </c>
       <c r="D2529">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2530" spans="1:4">
@@ -36505,7 +36514,7 @@
         <v>41</v>
       </c>
       <c r="D2548">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2549" spans="1:4">
@@ -36645,7 +36654,7 @@
         <v>73</v>
       </c>
       <c r="D2558">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2559" spans="1:4">
@@ -36757,7 +36766,7 @@
         <v>5</v>
       </c>
       <c r="D2566">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="2567" spans="1:4">
@@ -36771,7 +36780,7 @@
         <v>8</v>
       </c>
       <c r="D2567">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2568" spans="1:4">
@@ -37289,7 +37298,7 @@
         <v>25</v>
       </c>
       <c r="D2604">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2605" spans="1:4">
@@ -37429,7 +37438,7 @@
         <v>68</v>
       </c>
       <c r="D2614">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2615" spans="1:4">
@@ -38143,7 +38152,7 @@
         <v>50</v>
       </c>
       <c r="D2665">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2666" spans="1:4">
@@ -38185,7 +38194,7 @@
         <v>63</v>
       </c>
       <c r="D2668">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2669" spans="1:4">
@@ -39221,7 +39230,7 @@
         <v>17</v>
       </c>
       <c r="D2742">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2743" spans="1:4">
@@ -39417,7 +39426,7 @@
         <v>66</v>
       </c>
       <c r="D2756">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2757" spans="1:4">
@@ -39557,7 +39566,7 @@
         <v>5</v>
       </c>
       <c r="D2766">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -39585,7 +39594,7 @@
         <v>11</v>
       </c>
       <c r="D2768">
-        <v>3718</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -39613,7 +39622,7 @@
         <v>15</v>
       </c>
       <c r="D2770">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2771" spans="1:4">
@@ -39711,7 +39720,7 @@
         <v>27</v>
       </c>
       <c r="D2777">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2778" spans="1:4">
@@ -39949,7 +39958,7 @@
         <v>5</v>
       </c>
       <c r="D2794">
-        <v>2986</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="2795" spans="1:4">
@@ -40201,7 +40210,7 @@
         <v>63</v>
       </c>
       <c r="D2812">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2813" spans="1:4">
@@ -40411,7 +40420,7 @@
         <v>17</v>
       </c>
       <c r="D2827">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2828" spans="1:4">
@@ -40481,7 +40490,7 @@
         <v>25</v>
       </c>
       <c r="D2832">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2833" spans="1:4">
@@ -40551,7 +40560,7 @@
         <v>50</v>
       </c>
       <c r="D2837">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2838" spans="1:4">
@@ -40691,7 +40700,7 @@
         <v>85</v>
       </c>
       <c r="D2847">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2848" spans="1:4">
@@ -40789,7 +40798,7 @@
         <v>11</v>
       </c>
       <c r="D2854">
-        <v>2147</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="2855" spans="1:4">
@@ -40803,7 +40812,7 @@
         <v>13</v>
       </c>
       <c r="D2855">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2856" spans="1:4">
@@ -40887,7 +40896,7 @@
         <v>23</v>
       </c>
       <c r="D2861">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2862" spans="1:4">
@@ -40957,7 +40966,7 @@
         <v>47</v>
       </c>
       <c r="D2866">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2867" spans="1:4">
@@ -40985,7 +40994,7 @@
         <v>52</v>
       </c>
       <c r="D2868">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2869" spans="1:4">
@@ -41041,7 +41050,7 @@
         <v>68</v>
       </c>
       <c r="D2872">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2873" spans="1:4">
@@ -41125,7 +41134,7 @@
         <v>86</v>
       </c>
       <c r="D2878">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2879" spans="1:4">
@@ -41601,7 +41610,7 @@
         <v>13</v>
       </c>
       <c r="D2912">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2913" spans="1:4">
@@ -41657,7 +41666,7 @@
         <v>19</v>
       </c>
       <c r="D2916">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2917" spans="1:4">
@@ -42189,7 +42198,7 @@
         <v>50</v>
       </c>
       <c r="D2954">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2955" spans="1:4">
@@ -42379,13 +42388,1245 @@
         <v>2966</v>
       </c>
       <c r="B2968" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2968">
+        <v>5</v>
+      </c>
+      <c r="D2968">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:4">
+      <c r="A2969" s="1">
+        <v>2967</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2969">
+        <v>8</v>
+      </c>
+      <c r="D2969">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:4">
+      <c r="A2970" s="1">
+        <v>2968</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2970">
+        <v>11</v>
+      </c>
+      <c r="D2970">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:4">
+      <c r="A2971" s="1">
+        <v>2969</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2971">
+        <v>13</v>
+      </c>
+      <c r="D2971">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:4">
+      <c r="A2972" s="1">
+        <v>2970</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2972">
+        <v>15</v>
+      </c>
+      <c r="D2972">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:4">
+      <c r="A2973" s="1">
+        <v>2971</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2973">
+        <v>17</v>
+      </c>
+      <c r="D2973">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:4">
+      <c r="A2974" s="1">
+        <v>2972</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2974">
+        <v>18</v>
+      </c>
+      <c r="D2974">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:4">
+      <c r="A2975" s="1">
+        <v>2973</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2975">
+        <v>19</v>
+      </c>
+      <c r="D2975">
         <v>99</v>
       </c>
-      <c r="D2968">
+    </row>
+    <row r="2976" spans="1:4">
+      <c r="A2976" s="1">
+        <v>2974</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2976">
+        <v>20</v>
+      </c>
+      <c r="D2976">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:4">
+      <c r="A2977" s="1">
+        <v>2975</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2977">
+        <v>23</v>
+      </c>
+      <c r="D2977">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:4">
+      <c r="A2978" s="1">
+        <v>2976</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2978">
+        <v>25</v>
+      </c>
+      <c r="D2978">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:4">
+      <c r="A2979" s="1">
+        <v>2977</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2979">
+        <v>27</v>
+      </c>
+      <c r="D2979">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:4">
+      <c r="A2980" s="1">
+        <v>2978</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2980">
+        <v>41</v>
+      </c>
+      <c r="D2980">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:4">
+      <c r="A2981" s="1">
+        <v>2979</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2981">
+        <v>44</v>
+      </c>
+      <c r="D2981">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:4">
+      <c r="A2982" s="1">
+        <v>2980</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2982">
+        <v>47</v>
+      </c>
+      <c r="D2982">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:4">
+      <c r="A2983" s="1">
+        <v>2981</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2983">
+        <v>50</v>
+      </c>
+      <c r="D2983">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:4">
+      <c r="A2984" s="1">
+        <v>2982</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2984">
+        <v>52</v>
+      </c>
+      <c r="D2984">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:4">
+      <c r="A2985" s="1">
+        <v>2983</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2985">
+        <v>54</v>
+      </c>
+      <c r="D2985">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:4">
+      <c r="A2986" s="1">
+        <v>2984</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2986">
+        <v>63</v>
+      </c>
+      <c r="D2986">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:4">
+      <c r="A2987" s="1">
+        <v>2985</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2987">
+        <v>66</v>
+      </c>
+      <c r="D2987">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:4">
+      <c r="A2988" s="1">
+        <v>2986</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2988">
+        <v>68</v>
+      </c>
+      <c r="D2988">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:4">
+      <c r="A2989" s="1">
+        <v>2987</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2989">
+        <v>70</v>
+      </c>
+      <c r="D2989">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:4">
+      <c r="A2990" s="1">
+        <v>2988</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2990">
+        <v>73</v>
+      </c>
+      <c r="D2990">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:4">
+      <c r="A2991" s="1">
+        <v>2989</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2991">
+        <v>76</v>
+      </c>
+      <c r="D2991">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:4">
+      <c r="A2992" s="1">
+        <v>2990</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2992">
+        <v>81</v>
+      </c>
+      <c r="D2992">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:4">
+      <c r="A2993" s="1">
+        <v>2991</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2993">
+        <v>85</v>
+      </c>
+      <c r="D2993">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:4">
+      <c r="A2994" s="1">
+        <v>2992</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2994">
+        <v>86</v>
+      </c>
+      <c r="D2994">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:4">
+      <c r="A2995" s="1">
+        <v>2993</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2995">
+        <v>88</v>
+      </c>
+      <c r="D2995">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:4">
+      <c r="A2996" s="1">
+        <v>2994</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2996">
+        <v>91</v>
+      </c>
+      <c r="D2996">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:4">
+      <c r="A2997" s="1">
+        <v>2995</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2997">
+        <v>95</v>
+      </c>
+      <c r="D2997">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:4">
+      <c r="A2998" s="1">
+        <v>2996</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2998">
+        <v>5</v>
+      </c>
+      <c r="D2998">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:4">
+      <c r="A2999" s="1">
+        <v>2997</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2999">
         <v>8</v>
+      </c>
+      <c r="D2999">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:4">
+      <c r="A3000" s="1">
+        <v>2998</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3000">
+        <v>11</v>
+      </c>
+      <c r="D3000">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:4">
+      <c r="A3001" s="1">
+        <v>2999</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3001">
+        <v>13</v>
+      </c>
+      <c r="D3001">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:4">
+      <c r="A3002" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3002">
+        <v>15</v>
+      </c>
+      <c r="D3002">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:4">
+      <c r="A3003" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3003">
+        <v>17</v>
+      </c>
+      <c r="D3003">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:4">
+      <c r="A3004" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3004">
+        <v>18</v>
+      </c>
+      <c r="D3004">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:4">
+      <c r="A3005" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3005">
+        <v>19</v>
+      </c>
+      <c r="D3005">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:4">
+      <c r="A3006" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3006">
+        <v>20</v>
+      </c>
+      <c r="D3006">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:4">
+      <c r="A3007" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3007">
+        <v>23</v>
+      </c>
+      <c r="D3007">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:4">
+      <c r="A3008" s="1">
+        <v>3006</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3008">
+        <v>25</v>
+      </c>
+      <c r="D3008">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:4">
+      <c r="A3009" s="1">
+        <v>3007</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3009">
+        <v>27</v>
+      </c>
+      <c r="D3009">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:4">
+      <c r="A3010" s="1">
+        <v>3008</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3010">
+        <v>41</v>
+      </c>
+      <c r="D3010">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:4">
+      <c r="A3011" s="1">
+        <v>3009</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3011">
+        <v>44</v>
+      </c>
+      <c r="D3011">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:4">
+      <c r="A3012" s="1">
+        <v>3010</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3012">
+        <v>47</v>
+      </c>
+      <c r="D3012">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:4">
+      <c r="A3013" s="1">
+        <v>3011</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3013">
+        <v>50</v>
+      </c>
+      <c r="D3013">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:4">
+      <c r="A3014" s="1">
+        <v>3012</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3014">
+        <v>52</v>
+      </c>
+      <c r="D3014">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:4">
+      <c r="A3015" s="1">
+        <v>3013</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3015">
+        <v>54</v>
+      </c>
+      <c r="D3015">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:4">
+      <c r="A3016" s="1">
+        <v>3014</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3016">
+        <v>63</v>
+      </c>
+      <c r="D3016">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:4">
+      <c r="A3017" s="1">
+        <v>3015</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3017">
+        <v>66</v>
+      </c>
+      <c r="D3017">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:4">
+      <c r="A3018" s="1">
+        <v>3016</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3018">
+        <v>68</v>
+      </c>
+      <c r="D3018">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:4">
+      <c r="A3019" s="1">
+        <v>3017</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3019">
+        <v>70</v>
+      </c>
+      <c r="D3019">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:4">
+      <c r="A3020" s="1">
+        <v>3018</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3020">
+        <v>73</v>
+      </c>
+      <c r="D3020">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:4">
+      <c r="A3021" s="1">
+        <v>3019</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3021">
+        <v>76</v>
+      </c>
+      <c r="D3021">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:4">
+      <c r="A3022" s="1">
+        <v>3020</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3022">
+        <v>81</v>
+      </c>
+      <c r="D3022">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:4">
+      <c r="A3023" s="1">
+        <v>3021</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3023">
+        <v>85</v>
+      </c>
+      <c r="D3023">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:4">
+      <c r="A3024" s="1">
+        <v>3022</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3024">
+        <v>86</v>
+      </c>
+      <c r="D3024">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:4">
+      <c r="A3025" s="1">
+        <v>3023</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3025">
+        <v>88</v>
+      </c>
+      <c r="D3025">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:4">
+      <c r="A3026" s="1">
+        <v>3024</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3026">
+        <v>91</v>
+      </c>
+      <c r="D3026">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:4">
+      <c r="A3027" s="1">
+        <v>3025</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3027">
+        <v>95</v>
+      </c>
+      <c r="D3027">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:4">
+      <c r="A3028" s="1">
+        <v>3026</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3028">
+        <v>5</v>
+      </c>
+      <c r="D3028">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:4">
+      <c r="A3029" s="1">
+        <v>3027</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3029">
+        <v>8</v>
+      </c>
+      <c r="D3029">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:4">
+      <c r="A3030" s="1">
+        <v>3028</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3030">
+        <v>11</v>
+      </c>
+      <c r="D3030">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:4">
+      <c r="A3031" s="1">
+        <v>3029</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3031">
+        <v>13</v>
+      </c>
+      <c r="D3031">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:4">
+      <c r="A3032" s="1">
+        <v>3030</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3032">
+        <v>15</v>
+      </c>
+      <c r="D3032">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:4">
+      <c r="A3033" s="1">
+        <v>3031</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3033">
+        <v>17</v>
+      </c>
+      <c r="D3033">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:4">
+      <c r="A3034" s="1">
+        <v>3032</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3034">
+        <v>18</v>
+      </c>
+      <c r="D3034">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:4">
+      <c r="A3035" s="1">
+        <v>3033</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3035">
+        <v>19</v>
+      </c>
+      <c r="D3035">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:4">
+      <c r="A3036" s="1">
+        <v>3034</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3036">
+        <v>20</v>
+      </c>
+      <c r="D3036">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:4">
+      <c r="A3037" s="1">
+        <v>3035</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3037">
+        <v>23</v>
+      </c>
+      <c r="D3037">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:4">
+      <c r="A3038" s="1">
+        <v>3036</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3038">
+        <v>25</v>
+      </c>
+      <c r="D3038">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:4">
+      <c r="A3039" s="1">
+        <v>3037</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3039">
+        <v>27</v>
+      </c>
+      <c r="D3039">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:4">
+      <c r="A3040" s="1">
+        <v>3038</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3040">
+        <v>41</v>
+      </c>
+      <c r="D3040">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:4">
+      <c r="A3041" s="1">
+        <v>3039</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3041">
+        <v>44</v>
+      </c>
+      <c r="D3041">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:4">
+      <c r="A3042" s="1">
+        <v>3040</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3042">
+        <v>47</v>
+      </c>
+      <c r="D3042">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:4">
+      <c r="A3043" s="1">
+        <v>3041</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3043">
+        <v>50</v>
+      </c>
+      <c r="D3043">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:4">
+      <c r="A3044" s="1">
+        <v>3042</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3044">
+        <v>52</v>
+      </c>
+      <c r="D3044">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:4">
+      <c r="A3045" s="1">
+        <v>3043</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3045">
+        <v>54</v>
+      </c>
+      <c r="D3045">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:4">
+      <c r="A3046" s="1">
+        <v>3044</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3046">
+        <v>63</v>
+      </c>
+      <c r="D3046">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:4">
+      <c r="A3047" s="1">
+        <v>3045</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3047">
+        <v>66</v>
+      </c>
+      <c r="D3047">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:4">
+      <c r="A3048" s="1">
+        <v>3046</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3048">
+        <v>68</v>
+      </c>
+      <c r="D3048">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:4">
+      <c r="A3049" s="1">
+        <v>3047</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3049">
+        <v>70</v>
+      </c>
+      <c r="D3049">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:4">
+      <c r="A3050" s="1">
+        <v>3048</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3050">
+        <v>73</v>
+      </c>
+      <c r="D3050">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:4">
+      <c r="A3051" s="1">
+        <v>3049</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3051">
+        <v>76</v>
+      </c>
+      <c r="D3051">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:4">
+      <c r="A3052" s="1">
+        <v>3050</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3052">
+        <v>81</v>
+      </c>
+      <c r="D3052">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:4">
+      <c r="A3053" s="1">
+        <v>3051</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3053">
+        <v>85</v>
+      </c>
+      <c r="D3053">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:4">
+      <c r="A3054" s="1">
+        <v>3052</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3054">
+        <v>86</v>
+      </c>
+      <c r="D3054">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:4">
+      <c r="A3055" s="1">
+        <v>3053</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3055">
+        <v>91</v>
+      </c>
+      <c r="D3055">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:4">
+      <c r="A3056" s="1">
+        <v>3054</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3056">
+        <v>95</v>
+      </c>
+      <c r="D3056">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
